--- a/Week_data.xlsx
+++ b/Week_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5784" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5784" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="5" r:id="rId1"/>
@@ -835,16 +835,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,15 +864,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,12 +894,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,41 +1193,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="31">
         <v>43101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>13.276547000000001</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.150142</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="33">
         <v>43102</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="33">
         <v>43103</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="33">
         <v>43104</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="33">
         <v>43105</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1417,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,37 +1428,37 @@
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>43101</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>43102</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>43103</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>43104</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>43105</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>43106</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="17">
         <v>43107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>297</v>
       </c>
       <c r="C2" s="4">
@@ -1476,15 +1476,19 @@
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>300.85714285714283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>93889</v>
       </c>
       <c r="C3" s="4">
@@ -1502,15 +1506,19 @@
       <c r="G3" s="4">
         <v>96318</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>96440</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>94842.428571428565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1528,15 +1536,15 @@
       <c r="G4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1554,34 +1562,68 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B3+B2</f>
+        <v>94186</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="1">C3+C2</f>
+        <v>94323</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>94415</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>94364</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>95341</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>96626</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>96748</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B8:H8)</f>
+        <v>95143.28571428571</v>
       </c>
     </row>
   </sheetData>
@@ -1593,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,41 +1645,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="31">
         <v>43101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>2.4842300000000002</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.66666700000000001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="4" t="s">
         <v>122</v>
       </c>
@@ -1652,7 +1694,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+      <c r="A4" s="30">
         <v>43103</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1669,7 +1711,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="30">
         <v>43104</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1686,7 +1728,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="A6" s="30">
         <v>43105</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1746,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,37 +1799,37 @@
     <col min="1" max="1" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>43101</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>43102</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>43103</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>43104</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>43105</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>43106</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="17">
         <v>43107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>3</v>
       </c>
       <c r="C2" s="4">
@@ -1805,15 +1847,19 @@
       <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>94183</v>
       </c>
       <c r="C3" s="4">
@@ -1831,15 +1877,19 @@
       <c r="G3" s="4">
         <v>96622</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>96746</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>95165.28571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1857,15 +1907,15 @@
       <c r="G4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1883,34 +1933,68 @@
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B2+B3</f>
+        <v>94186</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="1">C2+C3</f>
+        <v>94323</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>94415</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>94364</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>95528</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>96626</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>96748</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B8:H8)</f>
+        <v>95170</v>
       </c>
     </row>
   </sheetData>
@@ -1920,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,37 +2017,37 @@
     <col min="3" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>43101</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>43102</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>43103</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>43104</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>43105</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>43106</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="17">
         <v>43107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>706</v>
       </c>
       <c r="C2" s="4">
@@ -1981,15 +2065,19 @@
       <c r="G2" s="4">
         <v>705</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>705</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="I2">
+        <f>AVERAGE(B2:H2)</f>
+        <v>708.14285714285711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>93480</v>
       </c>
       <c r="C3" s="4">
@@ -2007,15 +2095,19 @@
       <c r="G3" s="4">
         <v>95921</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>96043</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="I3">
+        <f>AVERAGE(B3:H3)</f>
+        <v>94435.142857142855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2033,15 +2125,15 @@
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2059,34 +2151,68 @@
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B2+B3</f>
+        <v>94186</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="0">C2+C3</f>
+        <v>94323</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>94415</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>94364</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>95341</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>96626</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>96748</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B8:H8)</f>
+        <v>95143.28571428571</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -2103,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="A1:E22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,19 +2243,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="1"/>
@@ -2137,24 +2263,24 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="34">
         <v>43101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>10.731441</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.90769200000000005</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="26">
         <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2164,12 +2290,12 @@
       <c r="D3" s="4">
         <v>3.0769999999999999E-3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -2179,12 +2305,12 @@
       <c r="D4" s="4">
         <v>1.5380000000000001E-3</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="A5" s="34">
         <v>43102</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2196,12 +2322,12 @@
       <c r="D5" s="4">
         <v>0.90686999999999995</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2211,12 +2337,12 @@
       <c r="D6" s="4">
         <v>3.0530000000000002E-3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -2226,12 +2352,12 @@
       <c r="D7" s="4">
         <v>1.5269999999999999E-3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="34">
         <v>43103</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2243,12 +2369,12 @@
       <c r="D8" s="5">
         <v>0.90937000000000001</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2258,12 +2384,12 @@
       <c r="D9" s="4">
         <v>3.0720000000000001E-3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2273,12 +2399,12 @@
       <c r="D10" s="4">
         <v>1.536E-3</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="34">
         <v>43104</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2290,12 +2416,12 @@
       <c r="D11" s="4">
         <v>0.91131499999999999</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2305,12 +2431,12 @@
       <c r="D12" s="4">
         <v>3.058E-3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2320,12 +2446,12 @@
       <c r="D13" s="4">
         <v>1.529E-3</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="34">
         <v>43105</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2337,12 +2463,12 @@
       <c r="D14" s="4">
         <v>0.90978599999999998</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2352,12 +2478,12 @@
       <c r="D15" s="4">
         <v>3.058E-3</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2367,12 +2493,12 @@
       <c r="D16" s="4">
         <v>1.529E-3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="34">
         <v>43106</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2384,12 +2510,12 @@
       <c r="D17" s="4">
         <v>0.90743600000000002</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -2399,12 +2525,12 @@
       <c r="D18" s="4">
         <v>3.0349999999999999E-3</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -2414,12 +2540,12 @@
       <c r="D19" s="4">
         <v>1.5169999999999999E-3</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="34">
         <v>43107</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2431,12 +2557,12 @@
       <c r="D20" s="4">
         <v>0.90757600000000005</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
@@ -2446,23 +2572,29 @@
       <c r="D21" s="4">
         <v>3.0300000000000001E-3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="21">
         <v>9.8574120000000001</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>1.5150000000000001E-3</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>AVERAGE(C2,C5,C8,C11,C14,C17,C20)</f>
+        <v>11.093133571428572</v>
       </c>
     </row>
   </sheetData>
@@ -2481,45 +2613,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>43101</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>43102</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>43103</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>43104</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>43105</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>43106</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="17">
         <v>43107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>650</v>
       </c>
       <c r="C2" s="4">
@@ -2537,15 +2669,19 @@
       <c r="G2" s="4">
         <v>659</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>660</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>654.71428571428567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>66406</v>
       </c>
       <c r="C3" s="4">
@@ -2563,15 +2699,19 @@
       <c r="G3" s="4">
         <v>68881</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>68997</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>67363.142857142855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2589,15 +2729,15 @@
       <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2615,34 +2755,68 @@
       <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B2+B3</f>
+        <v>67056</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="1">C2+C3</f>
+        <v>67152</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>67235</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>67268</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>68217</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>69540</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>69657</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B8:H8)</f>
+        <v>68017.857142857145</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +2829,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E29"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2664,41 +2838,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>43101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>2.944763</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.73142600000000002</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="26">
         <v>1585</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
@@ -2708,12 +2882,12 @@
       <c r="D3" s="4">
         <v>2.0305E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
@@ -2723,12 +2897,12 @@
       <c r="D4" s="4">
         <v>4.1529999999999996E-3</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2738,15 +2912,15 @@
       <c r="D5" s="4">
         <v>3.692E-3</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>43102</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6">
@@ -2755,12 +2929,12 @@
       <c r="D6" s="4">
         <v>0.73030600000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>1576</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -2770,12 +2944,12 @@
       <c r="D7" s="4">
         <v>1.9925999999999999E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2785,12 +2959,12 @@
       <c r="D8" s="5">
         <v>4.1710000000000002E-3</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,15 +2974,15 @@
       <c r="D9" s="4">
         <v>3.7069999999999998E-3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>43103</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4">
@@ -2817,12 +2991,12 @@
       <c r="D10" s="4">
         <v>0.72975500000000004</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>1577</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
@@ -2832,12 +3006,12 @@
       <c r="D11" s="4">
         <v>2.0361000000000001E-2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2847,12 +3021,12 @@
       <c r="D12" s="4">
         <v>4.1650000000000003E-3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2862,15 +3036,15 @@
       <c r="D13" s="4">
         <v>3.702E-3</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>43104</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4">
@@ -2879,12 +3053,12 @@
       <c r="D14" s="4">
         <v>0.73149399999999998</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>1591</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2894,12 +3068,12 @@
       <c r="D15" s="4">
         <v>2.0230000000000001E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2909,12 +3083,12 @@
       <c r="D16" s="4">
         <v>4.1380000000000002E-3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2924,15 +3098,15 @@
       <c r="D17" s="4">
         <v>3.6779999999999998E-3</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>43105</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="4">
@@ -2941,12 +3115,12 @@
       <c r="D18" s="4">
         <v>0.73128199999999999</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>1592</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
@@ -2956,12 +3130,12 @@
       <c r="D19" s="4">
         <v>2.0211E-2</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
@@ -2971,12 +3145,12 @@
       <c r="D20" s="4">
         <v>4.1339999999999997E-3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2986,29 +3160,29 @@
       <c r="D21" s="4">
         <v>3.6749999999999999E-3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="36">
         <v>43106</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>3.2106270000000001</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>0.73601499999999997</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="28">
         <v>1592</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
@@ -3018,12 +3192,12 @@
       <c r="D23" s="4">
         <v>2.0341999999999999E-2</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -3033,12 +3207,12 @@
       <c r="D24" s="4">
         <v>4.1609999999999998E-3</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
@@ -3048,15 +3222,15 @@
       <c r="D25" s="4">
         <v>3.699E-3</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="33">
+      <c r="A26" s="36">
         <v>43107</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="4">
@@ -3065,12 +3239,12 @@
       <c r="D26" s="4">
         <v>0.72627699999999995</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>1592</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
@@ -3080,12 +3254,12 @@
       <c r="D27" s="4">
         <v>2.0073000000000001E-2</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
@@ -3095,22 +3269,22 @@
       <c r="D28" s="4">
         <v>4.1060000000000003E-3</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="21">
         <v>28.110939999999999</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <v>3.65E-3</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>8</v>
       </c>
     </row>
@@ -3130,10 +3304,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3141,37 +3315,37 @@
     <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>43101</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>43102</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>43103</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>43104</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>43105</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>43106</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="17">
         <v>43107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>2167</v>
       </c>
       <c r="C2" s="4">
@@ -3189,15 +3363,19 @@
       <c r="G2" s="4">
         <v>2163</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>2192</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>2170.4285714285716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>64889</v>
       </c>
       <c r="C3" s="4">
@@ -3215,15 +3393,19 @@
       <c r="G3" s="4">
         <v>67377</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>67465</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>65847.428571428565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3241,15 +3423,15 @@
       <c r="G4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3267,34 +3449,68 @@
       <c r="G5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B2+B3</f>
+        <v>67056</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="1">C2+C3</f>
+        <v>67152</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>67235</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>67268</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>68217</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>69540</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>69657</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B8:H8)</f>
+        <v>68017.857142857145</v>
       </c>
     </row>
   </sheetData>
@@ -3304,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3316,41 +3532,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>43101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>5.5811270000000004</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.74545499999999998</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="26">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
@@ -3360,12 +3576,12 @@
       <c r="D3" s="4">
         <v>3.0300000000000001E-3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3375,12 +3591,12 @@
       <c r="D4" s="4">
         <v>3.0300000000000001E-3</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
@@ -3390,29 +3606,29 @@
       <c r="D5" s="4">
         <v>3.0300000000000001E-3</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>43102</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="29">
         <v>5.6153029999999999</v>
       </c>
       <c r="D6" s="4">
         <v>0.746224</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
@@ -3422,12 +3638,12 @@
       <c r="D7" s="4">
         <v>3.0209999999999998E-3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -3437,12 +3653,12 @@
       <c r="D8" s="5">
         <v>3.0209999999999998E-3</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
@@ -3452,15 +3668,15 @@
       <c r="D9" s="4">
         <v>3.0209999999999998E-3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>43103</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4">
@@ -3469,12 +3685,12 @@
       <c r="D10" s="4">
         <v>0.75</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>92</v>
       </c>
@@ -3484,12 +3700,12 @@
       <c r="D11" s="4">
         <v>3.0119999999999999E-3</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -3499,12 +3715,12 @@
       <c r="D12" s="4">
         <v>3.0119999999999999E-3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -3514,15 +3730,15 @@
       <c r="D13" s="4">
         <v>3.0119999999999999E-3</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>43104</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4">
@@ -3531,12 +3747,12 @@
       <c r="D14" s="4">
         <v>0.74924500000000005</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>92</v>
       </c>
@@ -3546,12 +3762,12 @@
       <c r="D15" s="4">
         <v>3.0209999999999998E-3</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
@@ -3561,12 +3777,12 @@
       <c r="D16" s="4">
         <v>3.0209999999999998E-3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>93</v>
       </c>
@@ -3576,15 +3792,15 @@
       <c r="D17" s="4">
         <v>3.0209999999999998E-3</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>43105</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="4">
@@ -3593,12 +3809,12 @@
       <c r="D18" s="4">
         <v>0.74774799999999997</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>92</v>
       </c>
@@ -3608,12 +3824,12 @@
       <c r="D19" s="4">
         <v>3.003E-3</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
@@ -3623,12 +3839,12 @@
       <c r="D20" s="4">
         <v>3.003E-3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
         <v>93</v>
       </c>
@@ -3638,29 +3854,29 @@
       <c r="D21" s="4">
         <v>3.003E-3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="36">
         <v>43106</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>5.6661279999999996</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>0.74193500000000001</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="28">
         <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>92</v>
       </c>
@@ -3670,12 +3886,12 @@
       <c r="D23" s="4">
         <v>2.9329999999999998E-3</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="4" t="s">
         <v>93</v>
       </c>
@@ -3685,15 +3901,15 @@
       <c r="D24" s="4">
         <v>2.9329999999999998E-3</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
+      <c r="A25" s="36">
         <v>43107</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="4">
@@ -3702,12 +3918,12 @@
       <c r="D25" s="4">
         <v>0.73391799999999996</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="4" t="s">
         <v>92</v>
       </c>
@@ -3717,23 +3933,29 @@
       <c r="D26" s="4">
         <v>2.9239999999999999E-3</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="21">
         <v>4.7762120000000001</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="21">
         <v>2.9239999999999999E-3</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>AVERAGE(C2,C6,C10,C14,C18,C22,C25)</f>
+        <v>5.6324948571428575</v>
       </c>
     </row>
   </sheetData>
@@ -3752,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3763,37 +3985,37 @@
     <col min="1" max="1" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>43101</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>43102</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>43103</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>43104</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>43105</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>43106</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="17">
         <v>43107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>330</v>
       </c>
       <c r="C2" s="4">
@@ -3811,15 +4033,19 @@
       <c r="G2" s="4">
         <v>341</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>334.28571428571428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>93856</v>
       </c>
       <c r="C3" s="4">
@@ -3837,15 +4063,19 @@
       <c r="G3" s="4">
         <v>96285</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>96406</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>94809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3863,15 +4093,15 @@
       <c r="G4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3889,34 +4119,68 @@
       <c r="G5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B2+B3</f>
+        <v>94186</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="1">C2+C3</f>
+        <v>94323</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>94415</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>94364</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>95341</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>96626</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>96748</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(B8:H8)</f>
+        <v>95143.28571428571</v>
       </c>
     </row>
   </sheetData>
@@ -3929,7 +4193,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3938,41 +4202,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>43101</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>9.2748000000000008</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.82828299999999999</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="26">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="4" t="s">
         <v>93</v>
       </c>
@@ -3982,12 +4246,12 @@
       <c r="D3" s="4">
         <v>3.3670000000000002E-3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
@@ -3997,12 +4261,12 @@
       <c r="D4" s="4">
         <v>3.3670000000000002E-3</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
@@ -4012,15 +4276,15 @@
       <c r="D5" s="4">
         <v>1.3468000000000001E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>43102</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6">
@@ -4029,12 +4293,12 @@
       <c r="D6" s="4">
         <v>0.82885900000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>93</v>
       </c>
@@ -4044,12 +4308,12 @@
       <c r="D7" s="4">
         <v>3.356E-3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
@@ -4059,12 +4323,12 @@
       <c r="D8" s="5">
         <v>3.356E-3</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>107</v>
       </c>
@@ -4074,15 +4338,15 @@
       <c r="D9" s="4">
         <v>1.3422999999999999E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>43103</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4">
@@ -4091,12 +4355,12 @@
       <c r="D10" s="4">
         <v>0.83277599999999996</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>93</v>
       </c>
@@ -4106,12 +4370,12 @@
       <c r="D11" s="4">
         <v>3.3440000000000002E-3</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="4" t="s">
         <v>92</v>
       </c>
@@ -4121,12 +4385,12 @@
       <c r="D12" s="4">
         <v>3.3440000000000002E-3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>107</v>
       </c>
@@ -4136,15 +4400,15 @@
       <c r="D13" s="4">
         <v>1.3377999999999999E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="36">
         <v>43104</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4">
@@ -4153,12 +4417,12 @@
       <c r="D14" s="4">
         <v>0.83501700000000001</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
@@ -4168,12 +4432,12 @@
       <c r="D15" s="4">
         <v>3.3670000000000002E-3</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
@@ -4183,12 +4447,12 @@
       <c r="D16" s="4">
         <v>3.3670000000000002E-3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
@@ -4198,15 +4462,15 @@
       <c r="D17" s="4">
         <v>1.3468000000000001E-2</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>43105</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="4">
@@ -4215,12 +4479,12 @@
       <c r="D18" s="4">
         <v>0.83277599999999996</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
@@ -4230,12 +4494,12 @@
       <c r="D19" s="4">
         <v>3.3440000000000002E-3</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
@@ -4245,12 +4509,12 @@
       <c r="D20" s="4">
         <v>3.3440000000000002E-3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
         <v>107</v>
       </c>
@@ -4260,29 +4524,29 @@
       <c r="D21" s="4">
         <v>1.3377999999999999E-2</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="36">
         <v>43106</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>9.1410990000000005</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>0.82142899999999996</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="28">
         <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>107</v>
       </c>
@@ -4292,12 +4556,12 @@
       <c r="D23" s="4">
         <v>1.2987E-2</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="4" t="s">
         <v>93</v>
       </c>
@@ -4307,12 +4571,12 @@
       <c r="D24" s="4">
         <v>3.2469999999999999E-3</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
@@ -4322,15 +4586,15 @@
       <c r="D25" s="4">
         <v>3.2469999999999999E-3</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="33">
+      <c r="A26" s="36">
         <v>43107</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="4">
@@ -4339,12 +4603,12 @@
       <c r="D26" s="4">
         <v>0.81493499999999996</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="4" t="s">
         <v>107</v>
       </c>
@@ -4354,12 +4618,12 @@
       <c r="D27" s="4">
         <v>1.2987E-2</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="4" t="s">
         <v>93</v>
       </c>
@@ -4369,22 +4633,22 @@
       <c r="D28" s="4">
         <v>3.2469999999999999E-3</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="21">
         <v>3.095831</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <v>3.2469999999999999E-3</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>1</v>
       </c>
     </row>
